--- a/biology/Histoire de la zoologie et de la botanique/Société_d'études_ornithologiques_de_France/Société_d'études_ornithologiques_de_France.xlsx
+++ b/biology/Histoire de la zoologie et de la botanique/Société_d'études_ornithologiques_de_France/Société_d'études_ornithologiques_de_France.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F5"/>
+  <dimension ref="A1:H5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -466,7 +476,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Soci%C3%A9t%C3%A9_d%27%C3%A9tudes_ornithologiques_de_France</t>
+          <t>Société_d'études_ornithologiques_de_France</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -480,10 +490,12 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">La Société d’Études Ornithologiques de France (SEOF), est une association ornithologique française créée en 1993.
-La SEOF collecte et étudie des données scientifiques fournies par des ornithologues professionnels et amateurs, et participe au développement, à la diffusion et à la valorisation de ces données[1]. Elle s’intéresse principalement aux oiseaux de France, de ses territoires d'Outre-Mer et de la zone paléarctique. La SEOF publie la revue scientifique internationale et trimestrielle Alauda [2]. Elle a son siège au Muséum national d'histoire naturelle de Paris[3].
+La SEOF collecte et étudie des données scientifiques fournies par des ornithologues professionnels et amateurs, et participe au développement, à la diffusion et à la valorisation de ces données. Elle s’intéresse principalement aux oiseaux de France, de ses territoires d'Outre-Mer et de la zone paléarctique. La SEOF publie la revue scientifique internationale et trimestrielle Alauda . Elle a son siège au Muséum national d'histoire naturelle de Paris.
 </t>
         </is>
       </c>
@@ -494,7 +506,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>Soci%C3%A9t%C3%A9_d%27%C3%A9tudes_ornithologiques_de_France</t>
+          <t>Société_d'études_ornithologiques_de_France</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -512,10 +524,12 @@
           <t>Historique</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">La SEOF est née du rapprochement, en 1993, des deux sociétés ornithologiques nationales, la Société Ornithologique de France (SOF)[4], créée en 1909, et la Société d’Études Ornithologiques (SEO).
-En 1929, la revue Alauda est créée sous le patronage de Paul Paris, professeur de zoologie à la Faculté des Sciences de Dijon[5],[6]. La même année, avec Henri Jouard, qui l’assiste pour la rédaction de la revue, il fonde la Société d’Études Ornithologiques (SEO).
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">La SEOF est née du rapprochement, en 1993, des deux sociétés ornithologiques nationales, la Société Ornithologique de France (SOF), créée en 1909, et la Société d’Études Ornithologiques (SEO).
+En 1929, la revue Alauda est créée sous le patronage de Paul Paris, professeur de zoologie à la Faculté des Sciences de Dijon,. La même année, avec Henri Jouard, qui l’assiste pour la rédaction de la revue, il fonde la Société d’Études Ornithologiques (SEO).
 </t>
         </is>
       </c>
@@ -526,7 +540,7 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>Soci%C3%A9t%C3%A9_d%27%C3%A9tudes_ornithologiques_de_France</t>
+          <t>Société_d'études_ornithologiques_de_France</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
@@ -544,7 +558,9 @@
           <t>Direction</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t>Membres fondateurs
 Claude Chappuis
@@ -559,7 +575,7 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>Soci%C3%A9t%C3%A9_d%27%C3%A9tudes_ornithologiques_de_France</t>
+          <t>Société_d'études_ornithologiques_de_France</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
@@ -579,8 +595,13 @@
       </c>
       <c r="F5" t="inlineStr">
         <is>
-          <t>Revue scientifique
-Alauda</t>
+          <t>Revue scientifique</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t>Alauda</t>
         </is>
       </c>
     </row>
